--- a/medicine/Psychotrope/Brooke_Bond/Brooke_Bond.xlsx
+++ b/medicine/Psychotrope/Brooke_Bond/Brooke_Bond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brooke Bond est une marque de thé britannique possédée par le groupe Unilever.
-L'entrepreneur Arthur Brooke ouvre son premier commerce en 1869 à Manchester, donnant naissance à la compagnie « Brooke, Bond &amp; Co. ». Le nom de « Bond » ne fait pas référence à une personne : Brooke l'a choisi parce qu'il sonnait bien[1].
+L'entrepreneur Arthur Brooke ouvre son premier commerce en 1869 à Manchester, donnant naissance à la compagnie « Brooke, Bond &amp; Co. ». Le nom de « Bond » ne fait pas référence à une personne : Brooke l'a choisi parce qu'il sonnait bien.
 En 1930, la compagnie lance la marque PG Tips. À partir des années 1950, les paquets de thé Brooke Bond incluent des cartes illustrées à collectionner sur la nature (plusieurs sont l'œuvre du peintre Charles Tunnicliffe) ou l'histoire. Les dernières cartes ont été distribuées en 1999, mais elles restent des objets de collection.
-Brooke Bond fusionne avec Liebig en 1968. « Brooke Bond Liebig » est racheté par Unilever en 1984[2]. Depuis, le nom « Brooke Bond » a cessé d'être utilisé par Unilever au Royaume-Uni, mais la marque existe toujours dans d'autres pays, par exemple en Russie.
+Brooke Bond fusionne avec Liebig en 1968. « Brooke Bond Liebig » est racheté par Unilever en 1984. Depuis, le nom « Brooke Bond » a cessé d'être utilisé par Unilever au Royaume-Uni, mais la marque existe toujours dans d'autres pays, par exemple en Russie.
 </t>
         </is>
       </c>
